--- a/Excel solver dataset.xlsx
+++ b/Excel solver dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Kuliah\TRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E42EE9-7479-4C0E-9935-FD69C9672186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA69A3F-9659-4788-8419-3C085724AC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{52C8AF33-FC3D-4971-846D-237753227F91}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">10</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$24</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$22</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
@@ -170,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -178,11 +178,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,13 +205,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA366C1-9F26-48B5-A936-67DA93618417}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,129 +554,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>15</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>14</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>16</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>20</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>12</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>14</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>10</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>10</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>12</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -657,7 +693,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -665,214 +701,237 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
         <v>620</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>350</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
         <v>970</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="7">
         <f>SUM(B15:E15)</f>
         <v>970</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>920</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
         <v>920</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="7">
         <f t="shared" ref="G16:G19" si="0">SUM(B16:E16)</f>
         <v>920</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>280</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
         <v>550</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
         <v>830</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
         <v>190</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
         <v>760</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="5">
         <v>950</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
         <v>690</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
         <v>690</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>1200</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>1500</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>900</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="5">
         <v>760</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="7">
         <f>SUM(B15:B19)</f>
         <v>1200</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="7">
         <f t="shared" ref="C21:E21" si="1">SUM(C15:C19)</f>
         <v>1500</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="7">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B22" s="10">
         <f>SUMPRODUCT(B4:E8, B15:E19)</f>
         <v>41590</v>
       </c>
     </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A11:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Excel solver dataset.xlsx
+++ b/Excel solver dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Kuliah\TRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Kuliah\TRO-produksi-padi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E42EE9-7479-4C0E-9935-FD69C9672186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E9D23A-84CE-4AF0-8D71-4E4F01DEC313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{52C8AF33-FC3D-4971-846D-237753227F91}"/>
   </bookViews>
@@ -170,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -178,11 +178,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,13 +205,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA366C1-9F26-48B5-A936-67DA93618417}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,129 +554,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>15</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>14</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>16</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>20</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>12</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>14</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="6">
         <v>10</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>10</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="6">
         <v>12</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -657,7 +693,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -665,214 +701,228 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
         <v>620</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="6">
         <v>350</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
         <v>970</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="8">
         <f>SUM(B15:E15)</f>
         <v>970</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
         <v>920</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
         <v>920</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="8">
         <f t="shared" ref="G16:G19" si="0">SUM(B16:E16)</f>
         <v>920</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="6">
         <v>280</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
         <v>550</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
         <v>830</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="8">
         <f t="shared" si="0"/>
         <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
         <v>190</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
         <v>760</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="6">
         <v>950</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="8">
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
         <v>690</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
         <v>690</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="8">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="6">
         <v>1200</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <v>1500</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="6">
         <v>900</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="6">
         <v>760</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <f>SUM(B15:B19)</f>
         <v>1200</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <f t="shared" ref="C21:E21" si="1">SUM(C15:C19)</f>
         <v>1500</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="8">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="8">
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <f>SUMPRODUCT(B4:E8, B15:E19)</f>
         <v>41590</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
